--- a/setting/CLGL.xlsx
+++ b/setting/CLGL.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>cphm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,19 +67,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>cphm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cphm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏EA2961</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>藏DK0700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cphm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cphm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏EA2961</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +499,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,10 +511,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -547,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -569,14 +569,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
